--- a/biology/Botanique/Patatnik/Patatnik.xlsx
+++ b/biology/Botanique/Patatnik/Patatnik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le patatnik ou patetnik (bulgare : пататник ou патетник) est un mets bulgare à base de pomme de terre caractéristique des Rhodopes, région montagneuse du sud de la Bulgarie. Le patatnik est fait de pommes de terre râpées, d'oignons, de sel et de menthe verte, le tout est mélangé et cuit à feu doux. De la viande, du sirene (fromage blanc genre feta) ou des œufs peuvent être ajoutés. Certains utilisent aussi de la sarriette et du piment.
